--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2348.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2348.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9647153362641923</v>
+        <v>0.999610960483551</v>
       </c>
       <c r="B1">
-        <v>1.504124727647782</v>
+        <v>2.110814332962036</v>
       </c>
       <c r="C1">
-        <v>3.208109841482656</v>
+        <v>6.909176826477051</v>
       </c>
       <c r="D1">
-        <v>2.556917561631797</v>
+        <v>2.036569595336914</v>
       </c>
       <c r="E1">
-        <v>1.149278604627188</v>
+        <v>1.374456167221069</v>
       </c>
     </row>
   </sheetData>
